--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\REACH\project_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312307DD-29B2-4263-A0E5-248712503467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D39B4A-01C2-4E6B-9F04-C23140120240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>R No.</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Assigned</t>
-  </si>
-  <si>
     <t>4 independent DoF</t>
   </si>
   <si>
@@ -62,6 +59,105 @@
   </si>
   <si>
     <t>Motors should operate proportionally to control and run independently</t>
+  </si>
+  <si>
+    <t>H/S</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Minimize cost</t>
+  </si>
+  <si>
+    <t>Position, path, and speed control</t>
+  </si>
+  <si>
+    <t>+/- 10mm precision</t>
+  </si>
+  <si>
+    <t>Wifi Connectivity</t>
+  </si>
+  <si>
+    <t>Basic local UI</t>
+  </si>
+  <si>
+    <t>Integrated Position and calibration sensors (positional awareness)</t>
+  </si>
+  <si>
+    <t>Table/Environment Calibration ability</t>
+  </si>
+  <si>
+    <t>Impact/Stall detection</t>
+  </si>
+  <si>
+    <t>Pick and Place ability</t>
+  </si>
+  <si>
+    <t>Custom Task programable</t>
+  </si>
+  <si>
+    <t>US/SCENARIOS</t>
+  </si>
+  <si>
+    <t>500mm Reach</t>
+  </si>
+  <si>
+    <t>The user can access any point within range of the arm with the claw in a specified vertical orientation with respect to the table.</t>
+  </si>
+  <si>
+    <t>SCRAPPY may interact with item a maximum of 500mm away from his central hub mount</t>
+  </si>
+  <si>
+    <t>With the given motor precision, at any directed point, SCRAPPY will position to that point within the given precision</t>
+  </si>
+  <si>
+    <t>The product should be made of 3D printed material and inexpensive OTS parts.</t>
+  </si>
+  <si>
+    <t>User Device UI and display</t>
+  </si>
+  <si>
+    <t>SCRAPPY must allow connection and interaction over WIFI</t>
+  </si>
+  <si>
+    <t>Using the WIFI connection; SCRAPPY should display information and control over the wifi link</t>
+  </si>
+  <si>
+    <t>SCRAPPY should have a simple display and button interface for manual override purposes.</t>
+  </si>
+  <si>
+    <t>The user can direct the arm to a position, at a giiven speed, following a set path.</t>
+  </si>
+  <si>
+    <t>To enable accurate positioning, SCRAPPY must maintain knowledge of its position through either calibration and motor tracking, or positional sensors.</t>
+  </si>
+  <si>
+    <t>SCRAPPY can detect and orient to a surface within range; SCRAPPY can maintain knowledge of the surfaces location such that it may place objects upon it.</t>
+  </si>
+  <si>
+    <t>External Object detection</t>
+  </si>
+  <si>
+    <t>SCRAPPY can sense or detect objects within its area of affect for avoidance or interaction purposes.</t>
+  </si>
+  <si>
+    <t>If SCRAPPY impacts an object or experiences any sort of stall, SCRAPPY can detect this so it may compensate or cease motion</t>
+  </si>
+  <si>
+    <t>Safe state</t>
+  </si>
+  <si>
+    <t>SCRAPPY must remain in a safe state regardless of malfunctions</t>
+  </si>
+  <si>
+    <t>Manual disable</t>
+  </si>
+  <si>
+    <t>SCRAPPY can be forced into a safe state by the users manually through a hardware intterupt.</t>
+  </si>
+  <si>
+    <t>Run motors to specific positions based on internal encoders. Run sychronously and ascychonouly, all motors</t>
   </si>
 </sst>
 </file>
@@ -115,10 +211,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -402,36 +502,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:D6"/>
+  <dimension ref="B5:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" ht="68.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -441,18 +717,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F880D-4B70-49D4-AE40-F57CFF8BFD30}">
-  <dimension ref="B4:G5"/>
+  <dimension ref="B4:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="98.5703125" customWidth="1"/>
     <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -462,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -485,13 +761,27 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D39B4A-01C2-4E6B-9F04-C23140120240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728BC470-FEE1-4C63-99BE-B5553698EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Tests" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>R No.</t>
   </si>
@@ -158,6 +169,18 @@
   </si>
   <si>
     <t>Run motors to specific positions based on internal encoders. Run sychronously and ascychonouly, all motors</t>
+  </si>
+  <si>
+    <t>Load &gt; 300g</t>
+  </si>
+  <si>
+    <t>SCRAPPY can lift small object at maximum extension</t>
+  </si>
+  <si>
+    <t>Speed &gt;100mm/s</t>
+  </si>
+  <si>
+    <t>SCRAPPY can move with intent</t>
   </si>
 </sst>
 </file>
@@ -502,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:G29"/>
+  <dimension ref="B5:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +558,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7" ht="68.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -583,131 +606,149 @@
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17">
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21">
+    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>14</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F880D-4B70-49D4-AE40-F57CFF8BFD30}">
   <dimension ref="B4:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728BC470-FEE1-4C63-99BE-B5553698EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF2FF9-7A9A-48BE-AF3D-851CAB5E7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>R No.</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>SCRAPPY can move with intent</t>
+  </si>
+  <si>
+    <t>SUB Requirements</t>
   </si>
 </sst>
 </file>
@@ -525,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:G35"/>
+  <dimension ref="A5:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>18</v>
       </c>
@@ -749,6 +752,11 @@
       </c>
       <c r="F35" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +769,7 @@
   <dimension ref="B4:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7975897b035f41c7/Projects/Project_SCRAPPY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF2FF9-7A9A-48BE-AF3D-851CAB5E7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{728BC470-FEE1-4C63-99BE-B5553698EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CA01EA-415E-4317-AA19-5B936D4BAF74}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>R No.</t>
   </si>
@@ -183,7 +183,74 @@
     <t>SCRAPPY can move with intent</t>
   </si>
   <si>
-    <t>SUB Requirements</t>
+    <t>Assigned</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Shaymus</t>
+  </si>
+  <si>
+    <t>Base and arm link 0, 3d printed</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Base range of motion</t>
+  </si>
+  <si>
+    <t>Base movement</t>
+  </si>
+  <si>
+    <t>Base and arm link 0 3d printed
+motor mounted on base</t>
+  </si>
+  <si>
+    <t>Turn on the motor to a set speed and set it to move to a specific position. The base and arm 0 should move in accordance with the motor. . Repeat this task to multiple position sequentially.</t>
+  </si>
+  <si>
+    <t>All motion should cease when the motor stops. There should be a minimal amount of vibrations and backlash with the motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manually twist the base with the motor detached. </t>
+  </si>
+  <si>
+    <t>The base should twist along its axis smoothly without an interuption. The base should be able to move through a full rotation</t>
+  </si>
+  <si>
+    <t>Base stability</t>
+  </si>
+  <si>
+    <t>Manually apply force to the extended portion of link 0; mimicing a load on the robot arm. Oscilate this force to mimic a moving load</t>
+  </si>
+  <si>
+    <t>The base arm should displace minimally when pressure applied to a given direction. The attachement should feel secure in all direction except the axis of rotation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaymus </t>
+  </si>
+  <si>
+    <t>Base Strength</t>
+  </si>
+  <si>
+    <t>Base mounting</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>attempt to position a long shape as if mounting it</t>
+  </si>
+  <si>
+    <t>The mounting of the base should allow a long arm to interact and have clearance to move with maximum freedom available</t>
+  </si>
+  <si>
+    <t>Place around 1kg of force on the furthest extension of arm 0</t>
+  </si>
+  <si>
+    <t>The base should hold firm without deforming or displacing more than a few mm.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G39"/>
+  <dimension ref="B5:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +641,7 @@
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7">
+        <f>B6+1</f>
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -585,6 +653,7 @@
     </row>
     <row r="8" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
+        <f t="shared" ref="B8:B35" si="0">B7+1</f>
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -596,6 +665,7 @@
     </row>
     <row r="9" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -607,6 +677,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -616,10 +687,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -630,7 +725,8 @@
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -641,7 +737,8 @@
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -650,9 +747,22 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -663,7 +773,8 @@
     </row>
     <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -674,7 +785,8 @@
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -685,7 +797,8 @@
     </row>
     <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -696,7 +809,8 @@
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -705,9 +819,22 @@
         <v>37</v>
       </c>
     </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
     <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -718,7 +845,8 @@
     </row>
     <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -727,9 +855,22 @@
         <v>42</v>
       </c>
     </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -737,26 +878,41 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -766,23 +922,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F880D-4B70-49D4-AE40-F57CFF8BFD30}">
-  <dimension ref="B4:G9"/>
+  <dimension ref="A4:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="98.5703125" customWidth="1"/>
-    <col min="6" max="6" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,46 +951,177 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
       <c r="B5">
+        <f>Requirements!B6</f>
         <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f>Requirements!B6</f>
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <f>Requirements!B6</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <f>Requirements!B8</f>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <f>Requirements!B7</f>
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <f>Requirements!B10</f>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
+        <f>Requirements!B19</f>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F26" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7975897b035f41c7/Projects/Project_SCRAPPY/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{728BC470-FEE1-4C63-99BE-B5553698EB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13CA01EA-415E-4317-AA19-5B936D4BAF74}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71D411-7B02-42F9-8A0A-B81104E4BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>R No.</t>
   </si>
@@ -251,13 +251,61 @@
   </si>
   <si>
     <t>The base should hold firm without deforming or displacing more than a few mm.</t>
+  </si>
+  <si>
+    <t>SUB Reqs</t>
+  </si>
+  <si>
+    <t>LINK0 and LINK1</t>
+  </si>
+  <si>
+    <t>Link0 must connect to Link1 with 1DoF</t>
+  </si>
+  <si>
+    <t>2. Link0 must house MotorB and Motor C</t>
+  </si>
+  <si>
+    <t>3. MotorB must directly control Link1</t>
+  </si>
+  <si>
+    <t>4. The motor mounting solution must allow for</t>
+  </si>
+  <si>
+    <t>direct control transfer from MotorC to Link2</t>
+  </si>
+  <si>
+    <t>5. All solutions must be 3D printable or</t>
+  </si>
+  <si>
+    <t>make use of available OTS components</t>
+  </si>
+  <si>
+    <t>6. Any Solution must integrate with</t>
+  </si>
+  <si>
+    <t>already designed components including link0A</t>
+  </si>
+  <si>
+    <t>7. Overall Requirements must be upheld</t>
+  </si>
+  <si>
+    <t>8. Design must be feasible</t>
+  </si>
+  <si>
+    <t> to create in given time constraint</t>
+  </si>
+  <si>
+    <t>9. Design should maximize</t>
+  </si>
+  <si>
+    <t>printablility and minimize wasted material</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +321,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -300,11 +365,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -314,8 +380,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -595,14 +670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:G35"/>
+  <dimension ref="A5:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="68.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -653,7 +729,7 @@
     </row>
     <row r="8" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" ref="B8:B35" si="0">B7+1</f>
+        <f t="shared" ref="B8:B67" si="0">B7+1</f>
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -891,19 +967,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -915,8 +991,250 @@
         <v>47</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -925,7 +1243,7 @@
   <dimension ref="A4:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71D411-7B02-42F9-8A0A-B81104E4BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D60EB-2C33-4B59-A6ED-DD11F771B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Tests" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>R No.</t>
   </si>
@@ -299,6 +300,36 @@
   </si>
   <si>
     <t>printablility and minimize wasted material</t>
+  </si>
+  <si>
+    <t>Go to Position</t>
+  </si>
+  <si>
+    <t>Accept position input from the user</t>
+  </si>
+  <si>
+    <t>Detemine the coorsesponding motor angles</t>
+  </si>
+  <si>
+    <t>Send this data to SCRAPPY from User Terminal</t>
+  </si>
+  <si>
+    <t>Parse the sent command</t>
+  </si>
+  <si>
+    <t>Set motor speed and direction</t>
+  </si>
+  <si>
+    <t>We need to run motors</t>
+  </si>
+  <si>
+    <t>We need to monitor sensors</t>
+  </si>
+  <si>
+    <t>We need to monitor user input for STOP command</t>
+  </si>
+  <si>
+    <t>Req</t>
   </si>
 </sst>
 </file>
@@ -670,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G67"/>
+  <dimension ref="A5:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +760,7 @@
     </row>
     <row r="8" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f t="shared" ref="B8:B67" si="0">B7+1</f>
+        <f>B7+1</f>
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -741,7 +772,7 @@
     </row>
     <row r="9" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>B8+1</f>
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -753,7 +784,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>B9+1</f>
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -765,7 +796,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>B10+1</f>
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -777,19 +808,19 @@
     </row>
     <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>B11+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>B12+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>B13+1</f>
         <v>9</v>
       </c>
       <c r="D14" t="s">
@@ -801,7 +832,7 @@
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>B14+1</f>
         <v>10</v>
       </c>
       <c r="D15" t="s">
@@ -813,7 +844,7 @@
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>B15+1</f>
         <v>11</v>
       </c>
       <c r="D16" t="s">
@@ -825,19 +856,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>B16+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>B17+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>B18+1</f>
         <v>14</v>
       </c>
       <c r="D19" t="s">
@@ -849,7 +880,7 @@
     </row>
     <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>B19+1</f>
         <v>15</v>
       </c>
       <c r="D20" t="s">
@@ -861,7 +892,7 @@
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>B20+1</f>
         <v>16</v>
       </c>
       <c r="D21" t="s">
@@ -873,7 +904,7 @@
     </row>
     <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>B21+1</f>
         <v>17</v>
       </c>
       <c r="D22" t="s">
@@ -885,7 +916,7 @@
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>B22+1</f>
         <v>18</v>
       </c>
       <c r="D23" t="s">
@@ -897,19 +928,19 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>B23+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>B24+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>B25+1</f>
         <v>21</v>
       </c>
       <c r="D26" t="s">
@@ -921,7 +952,7 @@
     </row>
     <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>B26+1</f>
         <v>22</v>
       </c>
       <c r="D27" t="s">
@@ -933,19 +964,19 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>B27+1</f>
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>B28+1</f>
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>B29+1</f>
         <v>25</v>
       </c>
       <c r="D30" t="s">
@@ -954,7 +985,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>B30+1</f>
         <v>26</v>
       </c>
       <c r="D31" t="s">
@@ -963,25 +994,25 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>B31+1</f>
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>B32+1</f>
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>B33+1</f>
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>B34+1</f>
         <v>30</v>
       </c>
       <c r="D35" t="s">
@@ -993,19 +1024,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>B35+1</f>
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>B36+1</f>
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>B37+1</f>
         <v>33</v>
       </c>
     </row>
@@ -1014,7 +1045,7 @@
         <v>71</v>
       </c>
       <c r="B39" s="7">
-        <f t="shared" si="0"/>
+        <f>B38+1</f>
         <v>34</v>
       </c>
       <c r="F39" s="8"/>
@@ -1024,7 +1055,7 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>B39+1</f>
         <v>35</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -1033,7 +1064,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>B40+1</f>
         <v>36</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -1042,7 +1073,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>B41+1</f>
         <v>37</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -1051,7 +1082,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>B42+1</f>
         <v>38</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -1060,7 +1091,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>B43+1</f>
         <v>39</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -1069,7 +1100,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>B44+1</f>
         <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -1078,7 +1109,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>B45+1</f>
         <v>41</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -1087,7 +1118,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>B46+1</f>
         <v>42</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -1096,7 +1127,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>B47+1</f>
         <v>43</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -1105,7 +1136,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>B48+1</f>
         <v>44</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -1114,7 +1145,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>B49+1</f>
         <v>45</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -1123,7 +1154,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>B50+1</f>
         <v>46</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -1132,7 +1163,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>B51+1</f>
         <v>47</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -1141,7 +1172,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>B52+1</f>
         <v>48</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -1150,86 +1181,38 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>B53+1</f>
         <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>Sheet1!C12+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f>B67+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f>B68+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f>B69+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>B70+1</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1239,6 +1222,77 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA3D371-0AF5-4E17-93BD-BA8CC1C6097B}">
+  <dimension ref="B4:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="64.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127F880D-4B70-49D4-AE40-F57CFF8BFD30}">
   <dimension ref="A4:H26"/>
   <sheetViews>

--- a/project_files/Req_and_Dev-SCRAPPY.xlsx
+++ b/project_files/Req_and_Dev-SCRAPPY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\SCRAPPY-MK1\project_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D60EB-2C33-4B59-A6ED-DD11F771B8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D725B0-6A65-4EF0-B3D7-6F91CE59BC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>R No.</t>
   </si>
@@ -330,6 +330,31 @@
   </si>
   <si>
     <t>Req</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid: To prevent unwanted error at the manipulator
+</t>
+  </si>
+  <si>
+    <t>Light wieght: to increase load ca</t>
+  </si>
+  <si>
+    <t>Cable Management option: Have conceled or protect channels for electrical cables</t>
+  </si>
+  <si>
+    <t>Belt routing and tensioner: Have the belt protect and tensioner integrate into the assembly to insure smooth motion</t>
+  </si>
+  <si>
+    <t>Try and follow the asthetic design of BASE and LINK0</t>
+  </si>
+  <si>
+    <t>Magnets and Hall effect sensors: These are being used for calibration, we need 3x magnets (2 at the limits of motion and one NON symetrically in the middle) which pass in range of the H sensor</t>
+  </si>
+  <si>
+    <t>4 motor: We don't know where this is going yet. See if you can think of something. This will be a stepper motor or planetary BLDC. Ask for specifics.</t>
+  </si>
+  <si>
+    <t>OTS bearings. Unless otherwise required, we CAN use 8mmx22mm OTS bearings  (same ones as in HUEBERT)  and an 8mm steel shaft for the LINK1-2 joint. See HUEBERT assembly (zip file) for integration examples.</t>
   </si>
 </sst>
 </file>
@@ -703,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F62" sqref="A40:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +773,7 @@
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7">
-        <f>B6+1</f>
+        <f t="shared" ref="B7:B63" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="D7" t="s">
@@ -760,7 +785,7 @@
     </row>
     <row r="8" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
-        <f>B7+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -772,7 +797,7 @@
     </row>
     <row r="9" spans="2:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
-        <f>B8+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D9" t="s">
@@ -784,7 +809,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>B9+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -796,7 +821,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11">
-        <f>B10+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D11" t="s">
@@ -808,19 +833,19 @@
     </row>
     <row r="12" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>B11+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>B12+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
-        <f>B13+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D14" t="s">
@@ -832,7 +857,7 @@
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15">
-        <f>B14+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D15" t="s">
@@ -844,7 +869,7 @@
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16">
-        <f>B15+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D16" t="s">
@@ -856,19 +881,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f>B16+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
-        <f>B17+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19">
-        <f>B18+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="D19" t="s">
@@ -880,7 +905,7 @@
     </row>
     <row r="20" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B20">
-        <f>B19+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D20" t="s">
@@ -892,7 +917,7 @@
     </row>
     <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B21">
-        <f>B20+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D21" t="s">
@@ -904,7 +929,7 @@
     </row>
     <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f>B21+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D22" t="s">
@@ -916,7 +941,7 @@
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B23">
-        <f>B22+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D23" t="s">
@@ -928,19 +953,19 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
-        <f>B23+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>B24+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B26">
-        <f>B25+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D26" t="s">
@@ -952,7 +977,7 @@
     </row>
     <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>B26+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D27" t="s">
@@ -964,19 +989,19 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f>B27+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f>B28+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f>B29+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D30" t="s">
@@ -985,7 +1010,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31">
-        <f>B30+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="D31" t="s">
@@ -994,25 +1019,25 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32">
-        <f>B31+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33">
-        <f>B32+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34">
-        <f>B33+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35">
-        <f>B34+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="D35" t="s">
@@ -1024,19 +1049,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36">
-        <f>B35+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37">
-        <f>B36+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38">
-        <f>B37+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -1045,7 +1070,7 @@
         <v>71</v>
       </c>
       <c r="B39" s="7">
-        <f>B38+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F39" s="8"/>
@@ -1055,7 +1080,7 @@
         <v>72</v>
       </c>
       <c r="B40">
-        <f>B39+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="F40" s="5" t="s">
@@ -1064,7 +1089,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41">
-        <f>B40+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -1073,7 +1098,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42">
-        <f>B41+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="F42" s="5" t="s">
@@ -1082,7 +1107,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43">
-        <f>B42+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -1091,7 +1116,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44">
-        <f>B43+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -1100,7 +1125,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45">
-        <f>B44+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
@@ -1109,7 +1134,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46">
-        <f>B45+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -1118,7 +1143,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47">
-        <f>B46+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -1127,7 +1152,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48">
-        <f>B47+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -1136,7 +1161,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49">
-        <f>B48+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -1145,7 +1170,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
-        <f>B49+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="F50" s="5" t="s">
@@ -1154,7 +1179,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
-        <f>B50+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="F51" s="5" t="s">
@@ -1163,7 +1188,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
-        <f>B51+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="F52" s="5" t="s">
@@ -1172,7 +1197,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f>B52+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="F53" s="5" t="s">
@@ -1181,8 +1206,86 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f>B53+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
@@ -1225,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA3D371-0AF5-4E17-93BD-BA8CC1C6097B}">
   <dimension ref="B4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
